--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2331.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2331.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.867633731345107</v>
+        <v>0.967257559299469</v>
       </c>
       <c r="B1">
-        <v>4.095356319523639</v>
+        <v>1.186035394668579</v>
       </c>
       <c r="C1">
-        <v>2.25395398485103</v>
+        <v>1.008044481277466</v>
       </c>
       <c r="D1">
-        <v>0.8341744312124129</v>
+        <v>1.041595458984375</v>
       </c>
       <c r="E1">
-        <v>0.5626773587241023</v>
+        <v>1.185782074928284</v>
       </c>
     </row>
   </sheetData>
